--- a/CircleRoom現時点での予想タスク-改-.xlsx
+++ b/CircleRoom現時点での予想タスク-改-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18801F54-9803-4ECF-8D65-F25F351BB0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376AED80-AE5D-46EA-A841-99072FC3CA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10455" yWindow="1710" windowWidth="17535" windowHeight="12330" xr2:uid="{8D1361EB-6F3C-4899-A5D6-7D2FB73B6B71}"/>
+    <workbookView xWindow="2220" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{8D1361EB-6F3C-4899-A5D6-7D2FB73B6B71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,13 +298,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -596,10 +602,64 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,64 +669,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011A10B2-403E-444B-B78B-5C73698EFCFA}">
   <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1001,282 +1016,282 @@
   <sheetData>
     <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="9">
+      <c r="D6" s="1"/>
+      <c r="E6" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="3"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11">
+      <c r="D8" s="5"/>
+      <c r="E8" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="3"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="3"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
